--- a/joint_index.xlsx
+++ b/joint_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>left_ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correction: parent index here in original implementation is 1(neck), which seems wrong.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +228,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,7 +522,7 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -542,11 +547,14 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>VLOOKUP(C2,A$2:B$22,2)</f>
+        <f t="shared" ref="D2:D22" si="0">VLOOKUP(C2,A$2:B$22,2)</f>
         <v>head</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -557,11 +565,11 @@
         <v>15</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>VLOOKUP(C3,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -572,11 +580,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>VLOOKUP(C4,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -587,11 +595,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>VLOOKUP(C5,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_arm</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -602,11 +610,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>VLOOKUP(C6,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_forearm</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -617,11 +625,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>VLOOKUP(C7,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -632,11 +640,11 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>VLOOKUP(C8,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_arm</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -647,11 +655,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>VLOOKUP(C9,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_forearm</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -662,11 +670,11 @@
         <v>14</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>VLOOKUP(C10,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -677,11 +685,11 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>VLOOKUP(C11,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_leg_up</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -692,11 +700,11 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>VLOOKUP(C12,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_leg</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -707,11 +715,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>VLOOKUP(C13,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -722,11 +730,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>VLOOKUP(C14,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_leg_up</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -737,11 +745,11 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>VLOOKUP(C15,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_leg</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -752,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>VLOOKUP(C16,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine</v>
       </c>
     </row>
@@ -767,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>VLOOKUP(C17,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>spine</v>
       </c>
     </row>
@@ -782,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>VLOOKUP(C18,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>neck</v>
       </c>
     </row>
@@ -797,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>VLOOKUP(C19,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_hand</v>
       </c>
     </row>
@@ -812,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>VLOOKUP(C20,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_hand</v>
       </c>
     </row>
@@ -827,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>VLOOKUP(C21,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>right_foot</v>
       </c>
     </row>
@@ -842,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>VLOOKUP(C22,A$2:B$22,2)</f>
+        <f t="shared" si="0"/>
         <v>left_foot</v>
       </c>
     </row>

--- a/joint_index.xlsx
+++ b/joint_index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,15 +41,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>neck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>right_arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_forearm</t>
+    <t>right_shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_elbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_wrist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_elbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_wrist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_hip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_ankle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_hip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_knee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_ankle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pelvis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,71 +109,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>left_arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_forearm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>left_hand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>right_leg_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_leg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_leg_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_leg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spine1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_hand_ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_hand_ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>correction: parent index here in original implementation is 1(neck), which seems wrong.</t>
+    <t>right_toe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_toe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpi_inf_3dhp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the first column: annotation index for corresponding joint in mpi_inf_3dhp dataset (0-27, which in MATLAB are 1-28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correction: parent index here in original implementation is 1 (neck), which seems wrong.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +167,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +195,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB75411"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF8F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,12 +249,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEF8F4"/>
+      <color rgb="FFB75411"/>
+      <color rgb="FFFDEFE7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,349 +540,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D22" si="0">VLOOKUP(C2,A$2:B$22,2)</f>
+      <c r="E2" s="4" t="str">
+        <f>VLOOKUP(D2,B$2:C$22,2)</f>
         <v>head</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>VLOOKUP(D3,B$2:C$22,2)</f>
+        <v>spine</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>VLOOKUP(D4,B$2:C$22,2)</f>
+        <v>neck</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(D5,B$2:C$22,2)</f>
+        <v>right_shoulder</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>VLOOKUP(D6,B$2:C$22,2)</f>
+        <v>right_elbow</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>VLOOKUP(D7,B$2:C$22,2)</f>
+        <v>neck</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>VLOOKUP(D8,B$2:C$22,2)</f>
+        <v>left_shoulder</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(D9,B$2:C$22,2)</f>
+        <v>left_elbow</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>VLOOKUP(D10,B$2:C$22,2)</f>
+        <v>pelvis</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>VLOOKUP(D11,B$2:C$22,2)</f>
+        <v>right_hip</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>VLOOKUP(D12,B$2:C$22,2)</f>
+        <v>right_knee</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(D13,B$2:C$22,2)</f>
+        <v>pelvis</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>VLOOKUP(D14,B$2:C$22,2)</f>
+        <v>left_hip</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>VLOOKUP(D15,B$2:C$22,2)</f>
+        <v>left_knee</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>VLOOKUP(D16,B$2:C$22,2)</f>
+        <v>pelvis</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(D17,B$2:C$22,2)</f>
+        <v>pelvis</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>spine1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" s="4" t="str">
+        <f>VLOOKUP(D18,B$2:C$22,2)</f>
         <v>neck</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>VLOOKUP(D19,B$2:C$22,2)</f>
+        <v>right_wrist</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_arm</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_forearm</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>neck</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="E20" s="4" t="str">
+        <f>VLOOKUP(D20,B$2:C$22,2)</f>
+        <v>left_wrist</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_arm</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_forearm</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>spine</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="E21" s="4" t="str">
+        <f>VLOOKUP(D21,B$2:C$22,2)</f>
+        <v>right_ankle</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_leg_up</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_leg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>spine</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_leg_up</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_leg</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>spine</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>spine</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>neck</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_hand</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_hand</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>right_foot</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>left_foot</v>
+      <c r="E22" s="4" t="str">
+        <f>VLOOKUP(D22,B$2:C$22,2)</f>
+        <v>left_ankle</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
